--- a/phân công caption.xlsx
+++ b/phân công caption.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\This PC\OneDrive\Máy tính\bt FE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\This PC\OneDrive\Máy tính\CapstoneS2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603236FA-4EF2-483D-BF3A-188DEC79EEA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE69F4F1-D105-4B77-A11C-083823DED50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="510" windowWidth="19200" windowHeight="9570" xr2:uid="{19561212-407D-4669-ADE7-DAE457BD75F5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="36">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -124,6 +124,21 @@
   </si>
   <si>
     <t>Phan 1 cau 12</t>
+  </si>
+  <si>
+    <t>25/10</t>
+  </si>
+  <si>
+    <t>Khoa</t>
+  </si>
+  <si>
+    <t>Phan 1 cau 2</t>
+  </si>
+  <si>
+    <t>Phan 1 cau 3</t>
+  </si>
+  <si>
+    <t>21/10</t>
   </si>
 </sst>
 </file>
@@ -306,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -367,6 +382,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -685,8 +703,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z986"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="97" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="97" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1161,10 +1179,18 @@
       <c r="A13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19"/>
+      <c r="B13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="21">
+        <v>1</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>32</v>
+      </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="18"/>
@@ -1191,10 +1217,18 @@
       <c r="A14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="12"/>
+      <c r="B14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="18">
+        <v>100</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="18"/>
@@ -1221,10 +1255,18 @@
       <c r="A15" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="12"/>
+      <c r="B15" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="18">
+        <v>100</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="18"/>
@@ -1247,17 +1289,27 @@
       <c r="Y15" s="6"/>
       <c r="Z15" s="6"/>
     </row>
-    <row r="16" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
+    <row r="16" spans="1:26" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="18">
+        <v>100</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -1275,17 +1327,27 @@
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
     </row>
-    <row r="17" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
+    <row r="17" spans="1:26" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="18">
+        <v>100</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
